--- a/副本部门成员信息new.xlsx
+++ b/副本部门成员信息new.xlsx
@@ -3324,10 +3324,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -3384,104 +3384,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3497,7 +3407,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3511,9 +3489,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3625,13 +3625,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3643,31 +3727,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3679,49 +3757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3733,49 +3769,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4238,8 +4238,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4253,26 +4253,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4293,16 +4293,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4337,61 +4337,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4400,85 +4400,85 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5236,11 +5236,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:N165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="K151" sqref="K151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -5254,8 +5254,8 @@
     <col min="10" max="10" width="9.41071428571429" customWidth="1"/>
     <col min="11" max="11" width="33.5803571428571" customWidth="1"/>
     <col min="12" max="12" width="13" style="93" customWidth="1"/>
-    <col min="13" max="13" width="11.4107142857143" style="93" customWidth="1"/>
-    <col min="14" max="14" width="13.5803571428571" style="185" customWidth="1"/>
+    <col min="13" max="13" width="11.7232142857143" style="93" customWidth="1"/>
+    <col min="14" max="14" width="15.9285714285714" style="185" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:8">
@@ -5298,7 +5298,44 @@
       <c r="G6" s="52"/>
       <c r="H6" s="52"/>
     </row>
-    <row r="7" ht="13.15"/>
+    <row r="7" ht="13.15" spans="3:14">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <v>13</v>
+      </c>
+    </row>
     <row r="8" spans="2:14">
       <c r="B8" s="22" t="s">
         <v>5</v>
@@ -5340,7 +5377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="13.2" spans="2:14">
+    <row r="9" ht="13.2" hidden="1" spans="2:14">
       <c r="B9" s="25" t="s">
         <v>18</v>
       </c>
@@ -5373,7 +5410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" ht="13" spans="2:14">
+    <row r="10" ht="13" hidden="1" spans="2:14">
       <c r="B10" s="25" t="s">
         <v>18</v>
       </c>
@@ -5408,7 +5445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" hidden="1" spans="2:14">
       <c r="B11" s="25" t="s">
         <v>29</v>
       </c>
@@ -5443,7 +5480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" hidden="1" spans="2:14">
       <c r="B12" s="25" t="s">
         <v>29</v>
       </c>
@@ -5478,7 +5515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" hidden="1" spans="2:14">
       <c r="B13" s="25" t="s">
         <v>29</v>
       </c>
@@ -5513,7 +5550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" hidden="1" spans="2:14">
       <c r="B14" s="25" t="s">
         <v>29</v>
       </c>
@@ -5548,7 +5585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" hidden="1" spans="2:14">
       <c r="B15" s="25" t="s">
         <v>29</v>
       </c>
@@ -5583,7 +5620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" hidden="1" spans="2:14">
       <c r="B16" s="25" t="s">
         <v>29</v>
       </c>
@@ -5618,7 +5655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" hidden="1" spans="2:14">
       <c r="B17" s="25" t="s">
         <v>29</v>
       </c>
@@ -5657,7 +5694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" hidden="1" spans="2:14">
       <c r="B18" s="25" t="s">
         <v>29</v>
       </c>
@@ -5889,7 +5926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" hidden="1" spans="2:14">
       <c r="B24" s="25" t="s">
         <v>58</v>
       </c>
@@ -5924,7 +5961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" hidden="1" spans="2:14">
       <c r="B25" s="25" t="s">
         <v>58</v>
       </c>
@@ -5959,7 +5996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" hidden="1" spans="2:14">
       <c r="B26" s="25" t="s">
         <v>58</v>
       </c>
@@ -5994,7 +6031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" hidden="1" spans="2:14">
       <c r="B27" s="25" t="s">
         <v>58</v>
       </c>
@@ -6029,7 +6066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" hidden="1" spans="2:14">
       <c r="B28" s="25" t="s">
         <v>58</v>
       </c>
@@ -6064,7 +6101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" hidden="1" spans="2:14">
       <c r="B29" s="25" t="s">
         <v>58</v>
       </c>
@@ -6099,7 +6136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" hidden="1" spans="2:14">
       <c r="B30" s="25" t="s">
         <v>58</v>
       </c>
@@ -6134,7 +6171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" hidden="1" spans="2:14">
       <c r="B31" s="25" t="s">
         <v>58</v>
       </c>
@@ -6169,7 +6206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" hidden="1" spans="2:14">
       <c r="B32" s="25" t="s">
         <v>58</v>
       </c>
@@ -6204,7 +6241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" hidden="1" spans="2:14">
       <c r="B33" s="25" t="s">
         <v>58</v>
       </c>
@@ -6278,7 +6315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" hidden="1" spans="2:14">
       <c r="B35" s="25" t="s">
         <v>108</v>
       </c>
@@ -6313,7 +6350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" hidden="1" spans="1:14">
       <c r="A36" s="168"/>
       <c r="B36" s="25" t="s">
         <v>108</v>
@@ -6349,7 +6386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" hidden="1" spans="2:14">
       <c r="B37" s="25" t="s">
         <v>108</v>
       </c>
@@ -6384,7 +6421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" hidden="1" spans="2:14">
       <c r="B38" s="25" t="s">
         <v>108</v>
       </c>
@@ -6419,7 +6456,7 @@
         <v>44330</v>
       </c>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" hidden="1" spans="2:14">
       <c r="B39" s="25" t="s">
         <v>108</v>
       </c>
@@ -6454,7 +6491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" hidden="1" spans="2:14">
       <c r="B40" s="25" t="s">
         <v>108</v>
       </c>
@@ -6489,7 +6526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" hidden="1" spans="2:14">
       <c r="B41" s="25" t="s">
         <v>108</v>
       </c>
@@ -6524,7 +6561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" hidden="1" spans="2:14">
       <c r="B42" s="25" t="s">
         <v>108</v>
       </c>
@@ -6563,7 +6600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" hidden="1" spans="2:14">
       <c r="B43" s="25" t="s">
         <v>108</v>
       </c>
@@ -6598,7 +6635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" hidden="1" spans="2:14">
       <c r="B44" s="25" t="s">
         <v>108</v>
       </c>
@@ -6633,7 +6670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" hidden="1" spans="2:14">
       <c r="B45" s="25" t="s">
         <v>108</v>
       </c>
@@ -6668,7 +6705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" hidden="1" spans="2:14">
       <c r="B46" s="25" t="s">
         <v>108</v>
       </c>
@@ -6703,7 +6740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" hidden="1" spans="2:14">
       <c r="B47" s="25" t="s">
         <v>108</v>
       </c>
@@ -6738,7 +6775,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" hidden="1" spans="2:14">
       <c r="B48" s="25" t="s">
         <v>108</v>
       </c>
@@ -6773,7 +6810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" hidden="1" spans="2:14">
       <c r="B49" s="25" t="s">
         <v>108</v>
       </c>
@@ -6964,7 +7001,7 @@
         <v>44349</v>
       </c>
     </row>
-    <row r="54" spans="2:14">
+    <row r="54" hidden="1" spans="2:14">
       <c r="B54" s="25" t="s">
         <v>163</v>
       </c>
@@ -6999,7 +7036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" hidden="1" spans="2:14">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7034,7 +7071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="2:14">
+    <row r="56" hidden="1" spans="2:14">
       <c r="B56" s="25" t="s">
         <v>163</v>
       </c>
@@ -7069,7 +7106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="2:14">
+    <row r="57" hidden="1" spans="2:14">
       <c r="B57" s="25" t="s">
         <v>163</v>
       </c>
@@ -7104,7 +7141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="2:14">
+    <row r="58" hidden="1" spans="2:14">
       <c r="B58" s="25" t="s">
         <v>163</v>
       </c>
@@ -7137,7 +7174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" hidden="1" spans="2:14">
       <c r="B59" s="25" t="s">
         <v>163</v>
       </c>
@@ -7170,7 +7207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="2:14">
+    <row r="60" hidden="1" spans="2:14">
       <c r="B60" s="25" t="s">
         <v>192</v>
       </c>
@@ -7593,7 +7630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="2:14">
+    <row r="71" hidden="1" spans="2:14">
       <c r="B71" s="25" t="s">
         <v>197</v>
       </c>
@@ -7628,7 +7665,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="2:14">
+    <row r="72" hidden="1" spans="2:14">
       <c r="B72" s="25" t="s">
         <v>197</v>
       </c>
@@ -7663,7 +7700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" hidden="1" spans="2:14">
       <c r="B73" s="25" t="s">
         <v>197</v>
       </c>
@@ -7698,7 +7735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="2:14">
+    <row r="74" hidden="1" spans="2:14">
       <c r="B74" s="25" t="s">
         <v>197</v>
       </c>
@@ -7733,7 +7770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="2:14">
+    <row r="75" hidden="1" spans="2:14">
       <c r="B75" s="25" t="s">
         <v>197</v>
       </c>
@@ -7768,7 +7805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="2:14">
+    <row r="76" hidden="1" spans="2:14">
       <c r="B76" s="25" t="s">
         <v>197</v>
       </c>
@@ -7803,7 +7840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="2:14">
+    <row r="77" hidden="1" spans="2:14">
       <c r="B77" s="25" t="s">
         <v>197</v>
       </c>
@@ -7838,7 +7875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="2:14">
+    <row r="78" hidden="1" spans="2:14">
       <c r="B78" s="25" t="s">
         <v>197</v>
       </c>
@@ -7873,7 +7910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="2:14">
+    <row r="79" hidden="1" spans="2:14">
       <c r="B79" s="25" t="s">
         <v>197</v>
       </c>
@@ -7906,7 +7943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="2:14">
+    <row r="80" hidden="1" spans="2:14">
       <c r="B80" s="25" t="s">
         <v>197</v>
       </c>
@@ -7941,7 +7978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="2:14">
+    <row r="81" hidden="1" spans="2:14">
       <c r="B81" s="25" t="s">
         <v>197</v>
       </c>
@@ -7976,7 +8013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="2:14">
+    <row r="82" hidden="1" spans="2:14">
       <c r="B82" s="25" t="s">
         <v>197</v>
       </c>
@@ -8011,7 +8048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="2:14">
+    <row r="83" hidden="1" spans="2:14">
       <c r="B83" s="25" t="s">
         <v>197</v>
       </c>
@@ -8046,7 +8083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="2:14">
+    <row r="84" hidden="1" spans="2:14">
       <c r="B84" s="25" t="s">
         <v>197</v>
       </c>
@@ -8081,7 +8118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="2:14">
+    <row r="85" hidden="1" spans="2:14">
       <c r="B85" s="25" t="s">
         <v>197</v>
       </c>
@@ -8116,7 +8153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="2:14">
+    <row r="86" hidden="1" spans="2:14">
       <c r="B86" s="25" t="s">
         <v>197</v>
       </c>
@@ -8151,7 +8188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="2:14">
+    <row r="87" hidden="1" spans="2:14">
       <c r="B87" s="25" t="s">
         <v>197</v>
       </c>
@@ -8186,7 +8223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="2:14">
+    <row r="88" hidden="1" spans="2:14">
       <c r="B88" s="25" t="s">
         <v>197</v>
       </c>
@@ -8221,7 +8258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="2:14">
+    <row r="89" hidden="1" spans="2:14">
       <c r="B89" s="25" t="s">
         <v>197</v>
       </c>
@@ -8254,7 +8291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="2:14">
+    <row r="90" hidden="1" spans="2:14">
       <c r="B90" s="25" t="s">
         <v>284</v>
       </c>
@@ -8279,7 +8316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="2:14">
+    <row r="91" hidden="1" spans="2:14">
       <c r="B91" s="25" t="s">
         <v>287</v>
       </c>
@@ -8314,7 +8351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="2:14">
+    <row r="92" hidden="1" spans="2:14">
       <c r="B92" s="25" t="s">
         <v>287</v>
       </c>
@@ -8349,7 +8386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="2:14">
+    <row r="93" hidden="1" spans="2:14">
       <c r="B93" s="25" t="s">
         <v>287</v>
       </c>
@@ -8384,7 +8421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" ht="15" spans="2:14">
+    <row r="94" ht="15" hidden="1" spans="2:14">
       <c r="B94" s="25" t="s">
         <v>287</v>
       </c>
@@ -8417,7 +8454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" ht="13" spans="2:14">
+    <row r="95" ht="13" hidden="1" spans="2:14">
       <c r="B95" s="25" t="s">
         <v>287</v>
       </c>
@@ -8450,7 +8487,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" ht="13" spans="2:14">
+    <row r="96" ht="13" hidden="1" spans="2:14">
       <c r="B96" s="25" t="s">
         <v>287</v>
       </c>
@@ -8483,7 +8520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="2:14">
+    <row r="97" hidden="1" spans="2:14">
       <c r="B97" s="25" t="s">
         <v>307</v>
       </c>
@@ -8518,7 +8555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="2:14">
+    <row r="98" hidden="1" spans="2:14">
       <c r="B98" s="25" t="s">
         <v>307</v>
       </c>
@@ -8553,7 +8590,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="2:14">
+    <row r="99" hidden="1" spans="2:14">
       <c r="B99" s="25" t="s">
         <v>307</v>
       </c>
@@ -8588,7 +8625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="2:14">
+    <row r="100" hidden="1" spans="2:14">
       <c r="B100" s="25" t="s">
         <v>307</v>
       </c>
@@ -8623,7 +8660,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="2:14">
+    <row r="101" hidden="1" spans="2:14">
       <c r="B101" s="79" t="s">
         <v>322</v>
       </c>
@@ -8650,7 +8687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="2:14">
+    <row r="102" hidden="1" spans="2:14">
       <c r="B102" s="79" t="s">
         <v>322</v>
       </c>
@@ -8794,7 +8831,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="106" spans="2:14">
+    <row r="106" hidden="1" spans="2:14">
       <c r="B106" s="25" t="s">
         <v>326</v>
       </c>
@@ -8829,7 +8866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="2:14">
+    <row r="107" hidden="1" spans="2:14">
       <c r="B107" s="25" t="s">
         <v>326</v>
       </c>
@@ -8864,7 +8901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="2:14">
+    <row r="108" hidden="1" spans="2:14">
       <c r="B108" s="25" t="s">
         <v>326</v>
       </c>
@@ -8899,7 +8936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="2:14">
+    <row r="109" hidden="1" spans="2:14">
       <c r="B109" s="25" t="s">
         <v>326</v>
       </c>
@@ -8934,7 +8971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="2:14">
+    <row r="110" hidden="1" spans="2:14">
       <c r="B110" s="25" t="s">
         <v>326</v>
       </c>
@@ -8969,7 +9006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="2:14">
+    <row r="111" hidden="1" spans="2:14">
       <c r="B111" s="25" t="s">
         <v>326</v>
       </c>
@@ -9004,7 +9041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="2:14">
+    <row r="112" hidden="1" spans="2:14">
       <c r="B112" s="25" t="s">
         <v>326</v>
       </c>
@@ -9039,7 +9076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="2:14">
+    <row r="113" hidden="1" spans="2:14">
       <c r="B113" s="25" t="s">
         <v>326</v>
       </c>
@@ -9074,7 +9111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="2:14">
+    <row r="114" hidden="1" spans="2:14">
       <c r="B114" s="25" t="s">
         <v>326</v>
       </c>
@@ -9109,7 +9146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="2:14">
+    <row r="115" hidden="1" spans="2:14">
       <c r="B115" s="25" t="s">
         <v>326</v>
       </c>
@@ -9144,7 +9181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="2:14">
+    <row r="116" hidden="1" spans="2:14">
       <c r="B116" s="25" t="s">
         <v>326</v>
       </c>
@@ -9179,7 +9216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="2:14">
+    <row r="117" hidden="1" spans="2:14">
       <c r="B117" s="25" t="s">
         <v>326</v>
       </c>
@@ -9214,7 +9251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="2:14">
+    <row r="118" hidden="1" spans="2:14">
       <c r="B118" s="25" t="s">
         <v>326</v>
       </c>
@@ -9249,7 +9286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="2:14">
+    <row r="119" hidden="1" spans="2:14">
       <c r="B119" s="25" t="s">
         <v>326</v>
       </c>
@@ -9282,7 +9319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="2:14">
+    <row r="120" hidden="1" spans="2:14">
       <c r="B120" s="25" t="s">
         <v>326</v>
       </c>
@@ -9315,7 +9352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="2:14">
+    <row r="121" hidden="1" spans="2:14">
       <c r="B121" s="25" t="s">
         <v>326</v>
       </c>
@@ -9350,7 +9387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="2:14">
+    <row r="122" hidden="1" spans="2:14">
       <c r="B122" s="25" t="s">
         <v>326</v>
       </c>
@@ -9385,7 +9422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="2:14">
+    <row r="123" hidden="1" spans="2:14">
       <c r="B123" s="25" t="s">
         <v>326</v>
       </c>
@@ -9420,7 +9457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="2:14">
+    <row r="124" hidden="1" spans="2:14">
       <c r="B124" s="25" t="s">
         <v>326</v>
       </c>
@@ -9455,7 +9492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="2:14">
+    <row r="125" hidden="1" spans="2:14">
       <c r="B125" s="25" t="s">
         <v>326</v>
       </c>
@@ -9490,7 +9527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="2:14">
+    <row r="126" hidden="1" spans="2:14">
       <c r="B126" s="25" t="s">
         <v>326</v>
       </c>
@@ -9525,7 +9562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="2:14">
+    <row r="127" hidden="1" spans="2:14">
       <c r="B127" s="25" t="s">
         <v>326</v>
       </c>
@@ -9561,7 +9598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="2:14">
+    <row r="128" hidden="1" spans="2:14">
       <c r="B128" s="25" t="s">
         <v>411</v>
       </c>
@@ -9596,7 +9633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="2:14">
+    <row r="129" hidden="1" spans="2:14">
       <c r="B129" s="25" t="s">
         <v>411</v>
       </c>
@@ -9631,7 +9668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" ht="13.75" customHeight="1" spans="2:14">
+    <row r="130" ht="13.75" hidden="1" customHeight="1" spans="2:14">
       <c r="B130" s="25" t="s">
         <v>411</v>
       </c>
@@ -9666,7 +9703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="2:14">
+    <row r="131" hidden="1" spans="2:14">
       <c r="B131" s="25" t="s">
         <v>411</v>
       </c>
@@ -9701,7 +9738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="2:14">
+    <row r="132" hidden="1" spans="2:14">
       <c r="B132" s="25" t="s">
         <v>411</v>
       </c>
@@ -9736,7 +9773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="2:14">
+    <row r="133" hidden="1" spans="2:14">
       <c r="B133" s="25" t="s">
         <v>411</v>
       </c>
@@ -9771,7 +9808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="2:14">
+    <row r="134" hidden="1" spans="2:14">
       <c r="B134" s="25" t="s">
         <v>411</v>
       </c>
@@ -9806,7 +9843,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="2:14">
+    <row r="135" hidden="1" spans="2:14">
       <c r="B135" s="25" t="s">
         <v>411</v>
       </c>
@@ -9841,7 +9878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="2:14">
+    <row r="136" hidden="1" spans="2:14">
       <c r="B136" s="25" t="s">
         <v>441</v>
       </c>
@@ -9876,7 +9913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="2:14">
+    <row r="137" hidden="1" spans="2:14">
       <c r="B137" s="25" t="s">
         <v>441</v>
       </c>
@@ -9911,7 +9948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="2:14">
+    <row r="138" hidden="1" spans="2:14">
       <c r="B138" s="25" t="s">
         <v>441</v>
       </c>
@@ -9946,7 +9983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="2:14">
+    <row r="139" hidden="1" spans="2:14">
       <c r="B139" s="25" t="s">
         <v>441</v>
       </c>
@@ -9981,7 +10018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="2:14">
+    <row r="140" hidden="1" spans="2:14">
       <c r="B140" s="25" t="s">
         <v>284</v>
       </c>
@@ -10006,7 +10043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" ht="13.2" spans="2:14">
+    <row r="141" ht="13.2" hidden="1" spans="2:14">
       <c r="B141" s="25" t="s">
         <v>460</v>
       </c>
@@ -10039,7 +10076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" ht="13.15" spans="1:14">
+    <row r="142" ht="13.15" hidden="1" spans="1:14">
       <c r="A142" s="168"/>
       <c r="B142" s="25" t="s">
         <v>460</v>
@@ -10073,7 +10110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" ht="13.15" spans="2:14">
+    <row r="143" ht="13.15" hidden="1" spans="2:14">
       <c r="B143" s="43" t="s">
         <v>460</v>
       </c>
@@ -10218,7 +10255,30 @@
       <c r="N165"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:N143"/>
+  <autoFilter ref="A8:N143">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="公共研发中心"/>
+        <filter val="平台研发中心"/>
+        <filter val="产品中心"/>
+        <filter val="业务研发中心"/>
+        <filter val="数据部"/>
+        <filter val="架构部"/>
+        <filter val="测试部"/>
+        <filter val="运维部"/>
+        <filter val="项目部"/>
+        <filter val="UK项目部"/>
+        <filter val="用户体验设计部"/>
+        <filter val="智能科创"/>
+        <filter val="PMO"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="equal" val="外包"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="K127" r:id="rId1" display="luoguang@fosunholiday.com"/>
     <hyperlink ref="K10" r:id="rId2" display="wangjl1@fosunholiday.com&#10;&#10;"/>
